--- a/results/FrequencyTables/26581162_sg95F.xlsx
+++ b/results/FrequencyTables/26581162_sg95F.xlsx
@@ -465,43 +465,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="C2">
-        <v>0.975609756097561</v>
+        <v>0.98155737704918</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="F2">
-        <v>0.0487804878048781</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="H2">
-        <v>0.024390243902439</v>
+        <v>0.0122950819672131</v>
       </c>
       <c r="I2">
-        <v>0.975609756097561</v>
+        <v>0.973360655737705</v>
       </c>
       <c r="J2">
-        <v>0.0487804878048781</v>
+        <v>0.0245901639344262</v>
       </c>
       <c r="K2">
-        <v>0.975609756097561</v>
+        <v>0.950819672131147</v>
       </c>
       <c r="L2">
-        <v>0.98780487804878</v>
+        <v>0.961065573770492</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.995901639344262</v>
       </c>
       <c r="R2">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="S2">
-        <v>0.963414634146341</v>
+        <v>0.891393442622951</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0614754098360656</v>
       </c>
       <c r="U2">
-        <v>0.024390243902439</v>
+        <v>0.069672131147541</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.989754098360656</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0121951219512195</v>
+        <v>0.0102459016393443</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="D3">
-        <v>0.0365853658536585</v>
+        <v>0.0225409836065574</v>
       </c>
       <c r="E3">
-        <v>0.0121951219512195</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.975609756097561</v>
+        <v>0.977459016393443</v>
       </c>
       <c r="I3">
-        <v>0.0121951219512195</v>
+        <v>0.0102459016393443</v>
       </c>
       <c r="J3">
-        <v>0.024390243902439</v>
+        <v>0.014344262295082</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="L3">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="M3">
-        <v>0.902439024390244</v>
+        <v>0.944672131147541</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.98780487804878</v>
+        <v>0.991803278688525</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="R3">
-        <v>0.98780487804878</v>
+        <v>0.993852459016393</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0983606557377049</v>
       </c>
       <c r="T3">
-        <v>0.975609756097561</v>
+        <v>0.932377049180328</v>
       </c>
       <c r="U3">
-        <v>0.975609756097561</v>
+        <v>0.924180327868853</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="X3">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,40 +613,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.975609756097561</v>
+        <v>0.979508196721312</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="D4">
-        <v>0.0121951219512195</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="E4">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="F4">
-        <v>0.939024390243902</v>
+        <v>0.975409836065574</v>
       </c>
       <c r="G4">
-        <v>0.98780487804878</v>
+        <v>0.993852459016393</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="J4">
-        <v>0.914634146341463</v>
+        <v>0.950819672131147</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0327868852459016</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -655,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="S4">
-        <v>0.0365853658536585</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.987704918032787</v>
       </c>
       <c r="X4">
-        <v>0.98780487804878</v>
+        <v>0.991803278688525</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,49 +687,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="C5">
-        <v>0.024390243902439</v>
+        <v>0.0122950819672131</v>
       </c>
       <c r="D5">
-        <v>0.951219512195122</v>
+        <v>0.967213114754098</v>
       </c>
       <c r="E5">
-        <v>0.975609756097561</v>
+        <v>0.987704918032787</v>
       </c>
       <c r="F5">
-        <v>0.0121951219512195</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="G5">
-        <v>0.0121951219512195</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="I5">
-        <v>0.0121951219512195</v>
+        <v>0.0122950819672131</v>
       </c>
       <c r="J5">
-        <v>0.0121951219512195</v>
+        <v>0.0102459016393443</v>
       </c>
       <c r="K5">
-        <v>0.024390243902439</v>
+        <v>0.040983606557377</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0975609756097561</v>
+        <v>0.0532786885245902</v>
       </c>
       <c r="N5">
-        <v>0.98780487804878</v>
+        <v>0.989754098360656</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0121951219512195</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="T5">
-        <v>0.024390243902439</v>
+        <v>0.00409836065573771</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00614754098360656</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00204918032786885</v>
       </c>
     </row>
   </sheetData>
